--- a/medicine/Enfance/May_d'Alençon/May_d'Alençon.xlsx
+++ b/medicine/Enfance/May_d'Alençon/May_d'Alençon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>May_d%27Alen%C3%A7on</t>
+          <t>May_d'Alençon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">May d'Alençon, née Madeleine-Eugénie Lécole (Paris 7e, 14 février 1898 - Rouen, 16 septembre 1968[1]), est un auteur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">May d'Alençon, née Madeleine-Eugénie Lécole (Paris 7e, 14 février 1898 - Rouen, 16 septembre 1968), est un auteur français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>May_d%27Alen%C3%A7on</t>
+          <t>May_d'Alençon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille d'un officier, elle se fixe à Rouen vers la fin de ses études secondaires. Elle devient professeur de français et épouse Clément d'Alençon en 1920[1]. Mère de huit enfants, et malgré des crises de cécité, elle mènera une double activité d'exploitante d'une petite propriété normande et d'écrivain.
-Elle a publié une trentaine de livres et écrit des centaines de contes ainsi que des romans[2] publiés dans des revues telles que Cœurs vaillants ou Spirou[3]. Elle s'intéresse à la fois à la nature, aux animaux et aux aventures dans des pays lointains, des thèmes qui l'inspirent et dont elle tire d'abord des récits pour ses enfants. Plusieurs de ses titres ont été traduits (italien, allemand, japonais, grec).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille d'un officier, elle se fixe à Rouen vers la fin de ses études secondaires. Elle devient professeur de français et épouse Clément d'Alençon en 1920. Mère de huit enfants, et malgré des crises de cécité, elle mènera une double activité d'exploitante d'une petite propriété normande et d'écrivain.
+Elle a publié une trentaine de livres et écrit des centaines de contes ainsi que des romans publiés dans des revues telles que Cœurs vaillants ou Spirou. Elle s'intéresse à la fois à la nature, aux animaux et aux aventures dans des pays lointains, des thèmes qui l'inspirent et dont elle tire d'abord des récits pour ses enfants. Plusieurs de ses titres ont été traduits (italien, allemand, japonais, grec).
 Elle est inhumée au cimetière de l'Ouest (Rouen).
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>May_d%27Alen%C3%A7on</t>
+          <t>May_d'Alençon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(liste exhaustive)
 1939 : T.T.S., cochon aérodynamique — Images de Françoise Themerson, Flammarion, coll. Album du Père Castor.
@@ -584,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>May_d%27Alen%C3%A7on</t>
+          <t>May_d'Alençon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,7 +618,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Jeunesse en 1963 pour Renard-Roux, récit d'une amitié entre un petit garçon et un renard.</t>
         </is>
